--- a/SuperMarket/src/main/java/Resources/TestData.xlsx
+++ b/SuperMarket/src/main/java/Resources/TestData.xlsx
@@ -4,64 +4,173 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SimpleInputFormDemo" sheetId="1" r:id="rId1"/>
-    <sheet name="CheckBoxDemo" sheetId="2" r:id="rId2"/>
-    <sheet name="SelectInputDemo" sheetId="4" r:id="rId3"/>
-    <sheet name="RadioButtonDemo" sheetId="5" r:id="rId4"/>
-    <sheet name="DynamicTable" sheetId="6" r:id="rId5"/>
+    <sheet name="ManagePages" sheetId="1" r:id="rId1"/>
+    <sheet name="loginpage" sheetId="2" r:id="rId2"/>
+    <sheet name="DeliveryBoy" sheetId="4" r:id="rId3"/>
+    <sheet name="HomePage" sheetId="5" r:id="rId4"/>
+    <sheet name="Menu" sheetId="6" r:id="rId5"/>
+    <sheet name="PushNotification" sheetId="7" r:id="rId6"/>
+    <sheet name="ManageUser" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
-  <si>
-    <t>Renju</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>SelectColor</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>SelectValue</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>Success - Check box is checked</t>
-  </si>
-  <si>
-    <t>'Female'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+  <si>
+    <t>#fff</t>
+  </si>
+  <si>
+    <t>#007bff</t>
+  </si>
+  <si>
+    <t>http://groceryapp.uniqassosiates.com/admin</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Dashboard | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>renju</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-product</t>
+  </si>
+  <si>
+    <t>Manage Product Url</t>
+  </si>
+  <si>
+    <t>url of SuperMarket</t>
+  </si>
+  <si>
+    <t>Title of SuperMarket</t>
+  </si>
+  <si>
+    <t>Valid Username</t>
+  </si>
+  <si>
+    <t>Valid Password</t>
+  </si>
+  <si>
+    <t>Invalid Usrname</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Expected Url</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-deliveryboy?add=1</t>
+  </si>
+  <si>
+    <t>Status Text</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Show Details</t>
+  </si>
+  <si>
+    <t>Expected Tool Tip</t>
+  </si>
+  <si>
+    <t>List Delivery Boy</t>
+  </si>
+  <si>
+    <t>Expected Text</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>peterson</t>
+  </si>
+  <si>
+    <t>peters</t>
+  </si>
+  <si>
+    <t>Manage Users</t>
+  </si>
+  <si>
+    <t>Push Notifications</t>
+  </si>
+  <si>
+    <t>titleone</t>
+  </si>
+  <si>
+    <t>description is necessary</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-notifications</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/Notification/add</t>
+  </si>
+  <si>
+    <t>Url after saving</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-deliveryboy</t>
+  </si>
+  <si>
+    <t>Delivery Boy Url</t>
+  </si>
+  <si>
+    <t>Expected Url-after saving</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-user</t>
+  </si>
+  <si>
+    <t>Color of Search Button</t>
   </si>
   <si>
     <t>rgba(255, 255, 255, 1)</t>
   </si>
   <si>
-    <t>Ashton Cox</t>
+    <t>Font Weight of Search Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +193,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,45 +518,249 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="63.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -439,107 +768,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="55.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="50.08984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SuperMarket/src/main/java/Resources/TestData.xlsx
+++ b/SuperMarket/src/main/java/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ManagePages" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,18 @@
     <sheet name="Menu" sheetId="6" r:id="rId5"/>
     <sheet name="PushNotification" sheetId="7" r:id="rId6"/>
     <sheet name="ManageUser" sheetId="8" r:id="rId7"/>
+    <sheet name="ManageLocation" sheetId="9" r:id="rId8"/>
+    <sheet name="ManageOrders" sheetId="10" r:id="rId9"/>
+    <sheet name="ManageSlider" sheetId="11" r:id="rId10"/>
+    <sheet name="ManageProduct" sheetId="12" r:id="rId11"/>
+    <sheet name="ManagePayment" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>#fff</t>
   </si>
@@ -97,15 +102,6 @@
     <t>Expected Text</t>
   </si>
   <si>
-    <t>peter</t>
-  </si>
-  <si>
-    <t>peterson</t>
-  </si>
-  <si>
-    <t>peters</t>
-  </si>
-  <si>
     <t>Manage Users</t>
   </si>
   <si>
@@ -146,13 +142,70 @@
   </si>
   <si>
     <t>Font Weight of Search Button</t>
+  </si>
+  <si>
+    <t>Manage Product</t>
+  </si>
+  <si>
+    <t>Manage Location</t>
+  </si>
+  <si>
+    <t>Bellfast</t>
+  </si>
+  <si>
+    <t>Manage Orders</t>
+  </si>
+  <si>
+    <t>kuruvuillaa</t>
+  </si>
+  <si>
+    <t>kuruvillas</t>
+  </si>
+  <si>
+    <t>kuruvilassss</t>
+  </si>
+  <si>
+    <t>New Location</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Manage Slider</t>
+  </si>
+  <si>
+    <t>https://selenium.obsqurazone.com/simple-form-demo.php</t>
+  </si>
+  <si>
+    <t>https://maven.apache.org/download.cgi</t>
+  </si>
+  <si>
+    <t>Red Meat</t>
+  </si>
+  <si>
+    <t>Manage Payment Methods</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>Payment type</t>
+  </si>
+  <si>
+    <t>payment amount</t>
+  </si>
+  <si>
+    <t>Password : abc123</t>
+  </si>
+  <si>
+    <t>Password Show Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +224,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1B1B1B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -212,6 +272,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,6 +606,94 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>45000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
@@ -618,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,7 +783,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3">
         <v>400</v>
@@ -642,7 +794,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -650,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -658,12 +810,12 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
@@ -687,10 +839,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -744,27 +896,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -784,12 +964,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -797,15 +977,15 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -819,10 +999,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,15 +1016,23 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -852,5 +1040,65 @@
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SuperMarket/src/main/java/Resources/TestData.xlsx
+++ b/SuperMarket/src/main/java/Resources/TestData.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ManagePages" sheetId="1" r:id="rId1"/>
     <sheet name="loginpage" sheetId="2" r:id="rId2"/>
     <sheet name="DeliveryBoy" sheetId="4" r:id="rId3"/>
-    <sheet name="HomePage" sheetId="5" r:id="rId4"/>
+    <sheet name="AdminUsers" sheetId="5" r:id="rId4"/>
     <sheet name="Menu" sheetId="6" r:id="rId5"/>
     <sheet name="PushNotification" sheetId="7" r:id="rId6"/>
     <sheet name="ManageUser" sheetId="8" r:id="rId7"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>#fff</t>
   </si>
@@ -199,6 +199,24 @@
   </si>
   <si>
     <t>Password Show Details</t>
+  </si>
+  <si>
+    <t>Admin Users</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>meethu</t>
+  </si>
+  <si>
+    <t>Delivery boy alert status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">×
+Alert!
+Delivery Boy Status Changed Successfully
+</t>
   </si>
 </sst>
 </file>
@@ -257,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -277,6 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -768,21 +787,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" style="9" customWidth="1"/>
     <col min="2" max="2" width="63.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="3">
@@ -790,7 +809,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -798,7 +817,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -806,7 +825,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -814,7 +833,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -822,7 +841,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -830,7 +849,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -838,11 +857,22 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,6 +915,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
@@ -896,10 +934,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -940,6 +978,11 @@
     <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/SuperMarket/src/main/java/Resources/TestData.xlsx
+++ b/SuperMarket/src/main/java/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ManagePages" sheetId="1" r:id="rId1"/>
@@ -213,8 +213,8 @@
     <t>Delivery boy alert status</t>
   </si>
   <si>
-    <t xml:space="preserve">×
-Alert!
+    <t xml:space="preserve">                                    ×
+                                Alert!
 Delivery Boy Status Changed Successfully
 </t>
   </si>
@@ -789,14 +789,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.1796875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="63.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="59.54296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -867,7 +867,7 @@
     <row r="9" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
